--- a/biology/Botanique/Épiaire/Épiaire.xlsx
+++ b/biology/Botanique/Épiaire/Épiaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89piaire</t>
+          <t>Épiaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys
-Les épiaires ou stachides[1] (genre Stachys) sont des plantes herbacées vivaces, parfois bisannuelles ou annuelles de la famille des Lamiacées.
+Les épiaires ou stachides (genre Stachys) sont des plantes herbacées vivaces, parfois bisannuelles ou annuelles de la famille des Lamiacées.
 Il en existe environ 300 espèces réparties un peu partout à travers le monde, sauf en Océanie.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89piaire</t>
+          <t>Épiaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Origine du nom générique et onomastique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les épiaires ont été groupées dans le genre stachys (prononcé en français stakis, du grec ancien στάχυς, stákhus, « épi ») par Carl von Linné dans Species Plantarum en 1753[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les épiaires ont été groupées dans le genre stachys (prononcé en français stakis, du grec ancien στάχυς, stákhus, « épi ») par Carl von Linné dans Species Plantarum en 1753.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89piaire</t>
+          <t>Épiaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stachys affinis Bunge - Crosne du Japon
